--- a/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
+++ b/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13200"/>
+    <workbookView windowWidth="27570" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:F2"/>
 </workbook>
 </file>
 
@@ -38,7 +39,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="H2")
+          <t xml:space="preserve">jx:area(lastCell="F2")
 </t>
         </r>
       </text>
@@ -60,7 +61,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="H2")
+          <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="F2")
 </t>
         </r>
       </text>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>类别编号</t>
   </si>
@@ -87,6 +88,9 @@
     <t>毛利</t>
   </si>
   <si>
+    <t>毛利率</t>
+  </si>
+  <si>
     <t>${obj.categoryCode}</t>
   </si>
   <si>
@@ -101,17 +105,20 @@
   <si>
     <t>${obj.grossProfit}</t>
   </si>
+  <si>
+    <t>${obj.grossProfitRate}%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -137,6 +144,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -145,16 +203,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,20 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,78 +282,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -296,18 +303,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,31 +441,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,127 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,24 +508,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +542,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,36 +609,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -610,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,21 +1119,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="5" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,22 +1149,28 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
+++ b/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27570" windowHeight="11505"/>
+    <workbookView windowWidth="21330" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,11 +114,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,19 +145,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -166,13 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -183,13 +190,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,6 +303,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,42 +387,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,19 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,18 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,24 +472,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,137 +629,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +774,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1169,7 +1172,7 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
+++ b/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="6600"/>
+    <workbookView windowWidth="27570" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>zhangq</author>
     <author>lijy02</author>
   </authors>
   <commentList>
@@ -30,21 +31,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">OKDEER:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">jx:area(lastCell="F2")
-</t>
+          <t>jx:area(lastCell="F3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -52,17 +43,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">OKDEER:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">jx:each(items="reportList" var="obj" lastCell="F2")
-</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="F3")</t>
         </r>
       </text>
     </comment>
@@ -71,7 +52,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+  <si>
+    <t>商品销售汇总分析-大类汇总</t>
+  </si>
   <si>
     <t>类别编号</t>
   </si>
@@ -114,13 +98,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,15 +121,87 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,19 +215,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -180,16 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,30 +246,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,55 +283,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +299,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,163 +401,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,36 +515,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -553,30 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +552,60 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -617,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,154 +631,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1122,61 +1130,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="6" width="20.375" customWidth="1"/>
+    <col min="1" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="1" ht="30" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
+++ b/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="G3")</t>
+          <t>jx:area(lastCell="G4")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>类别编号</t>
   </si>
@@ -103,6 +103,25 @@
   </si>
   <si>
     <t>商品销售汇总分析-大类汇总</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(C3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(D3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(E3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(F3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -110,8 +129,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -209,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +252,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -240,6 +263,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,7 +350,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -538,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -606,6 +697,25 @@
         <v>11</v>
       </c>
       <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
+++ b/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,6 +33,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="G3")</t>
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="G3")</t>
@@ -126,6 +128,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -133,35 +136,41 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -541,7 +550,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
+++ b/src/main/resources/template/excel/export/GoodsAnalysiByBigCategory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,9 +33,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="G4")</t>
+          <t>jx:area(lastCell="G3")</t>
         </r>
       </text>
     </comment>
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="G3")</t>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>类别编号</t>
   </si>
@@ -105,33 +107,13 @@
     <t>商品销售汇总分析-大类汇总</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(C3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(D3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(E3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -146,6 +128,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -153,35 +136,41 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -229,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,9 +241,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -263,74 +249,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -350,7 +268,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -629,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,25 +615,6 @@
         <v>11</v>
       </c>
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
